--- a/오브젝트 데이터.xlsx
+++ b/오브젝트 데이터.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\House_Of_Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330D962C-FB13-4581-9FDB-158892142166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F060674-6C30-499E-AF29-ACCB05122CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,10 @@
   </si>
   <si>
     <t>*나중에 오브젝트 아이디랑 매치시켜놓겠음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullets (003)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="183" formatCode="000"/>
-    <numFmt numFmtId="184" formatCode="00000"/>
+    <numFmt numFmtId="176" formatCode="000"/>
+    <numFmt numFmtId="177" formatCode="00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -380,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,10 +394,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -402,38 +436,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +759,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -773,130 +780,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="12">
+        <v>2</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="16">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>5</v>
       </c>
       <c r="I6" s="4"/>
@@ -911,10 +918,10 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="F10" t="s">
@@ -923,37 +930,37 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G14"/>
@@ -965,10 +972,10 @@
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G15"/>
@@ -980,10 +987,10 @@
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G16"/>
@@ -996,10 +1003,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
       <c r="G17"/>
@@ -1012,10 +1019,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G18"/>
@@ -1028,10 +1035,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G19"/>
@@ -1044,10 +1051,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="2"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G20"/>
@@ -1108,12 +1115,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/오브젝트 데이터.xlsx
+++ b/오브젝트 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F060674-6C30-499E-AF29-ACCB05122CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D999E33-CF49-4E0B-95B1-8149D3EF9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,10 @@
   </si>
   <si>
     <t>Bullets (003)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*child</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +245,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -340,9 +344,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -353,29 +355,78 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -384,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -418,29 +469,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B551F4EB-68F4-4566-A4CA-5E03BDD45215}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -769,47 +847,55 @@
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1">
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -818,36 +904,42 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="11">
+      <c r="K2" s="21">
         <v>1</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6">
+      <c r="N2" s="6">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="O2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="8">
+      <c r="Q2" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1">
+    <row r="3" spans="1:17" ht="17.25" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -856,271 +948,334 @@
       <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="12">
+      <c r="K3" s="22">
         <v>2</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="26"/>
+      <c r="M3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="6">
+      <c r="N3" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1">
+      <c r="O3" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="18"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="8">
+      <c r="N4" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.25" thickBot="1">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="D10" s="18" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="D10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="D11" s="18" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="D11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="D12" s="18" t="s">
+      <c r="F11" s="13"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="D13" s="18" t="s">
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="D13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G14"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="13"/>
+      <c r="H14"/>
       <c r="I14"/>
       <c r="J14" s="3"/>
       <c r="K14"/>
-      <c r="L14" s="3"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="D15" s="18" t="s">
+      <c r="L14"/>
+      <c r="M14" s="3"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" s="3"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G15"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="13"/>
+      <c r="H15"/>
       <c r="I15"/>
       <c r="J15" s="3"/>
       <c r="K15"/>
-      <c r="L15" s="3"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="D16" s="18" t="s">
+      <c r="L15"/>
+      <c r="M15" s="3"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15" s="3"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="D16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G16"/>
-      <c r="H16" s="3"/>
+      <c r="F16" s="13"/>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16" s="3"/>
       <c r="K16"/>
-      <c r="L16" s="3"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16"/>
+      <c r="M16" s="3"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16" s="3"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2"/>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G17"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="13"/>
+      <c r="H17"/>
       <c r="I17"/>
       <c r="J17" s="3"/>
       <c r="K17"/>
-      <c r="L17" s="3"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17"/>
+      <c r="M17" s="3"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" s="3"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2"/>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G18"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="13"/>
+      <c r="H18"/>
       <c r="I18"/>
       <c r="J18" s="3"/>
       <c r="K18"/>
-      <c r="L18" s="3"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18"/>
+      <c r="M18" s="3"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" s="3"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2"/>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G19"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="13"/>
+      <c r="H19"/>
       <c r="I19"/>
       <c r="J19" s="3"/>
       <c r="K19"/>
-      <c r="L19" s="3"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19"/>
+      <c r="M19" s="3"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19" s="3"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="13"/>
+      <c r="H20"/>
       <c r="I20"/>
       <c r="J20" s="3"/>
       <c r="K20"/>
-      <c r="L20" s="3"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20"/>
+      <c r="M20" s="3"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" s="3"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2"/>
-      <c r="G21"/>
-      <c r="H21" s="3"/>
+      <c r="H21"/>
       <c r="I21"/>
       <c r="J21" s="3"/>
       <c r="K21"/>
-      <c r="L21" s="3"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21"/>
+      <c r="M21" s="3"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="3"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2"/>
-      <c r="G22"/>
-      <c r="H22" s="3"/>
+      <c r="H22"/>
       <c r="I22"/>
       <c r="J22" s="3"/>
       <c r="K22"/>
-      <c r="L22" s="3"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="G23"/>
-      <c r="H23" s="3"/>
+      <c r="L22"/>
+      <c r="M22" s="3"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22" s="3"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="H23"/>
       <c r="I23"/>
       <c r="J23" s="3"/>
       <c r="K23"/>
-      <c r="L23" s="3"/>
-      <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="G24"/>
-      <c r="H24" s="3"/>
+      <c r="L23"/>
+      <c r="M23" s="3"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23" s="3"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="H24"/>
       <c r="I24"/>
       <c r="J24" s="3"/>
       <c r="K24"/>
-      <c r="L24" s="3"/>
-      <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="F25" s="3"/>
-      <c r="G25"/>
-      <c r="H25" s="3"/>
+      <c r="L24"/>
+      <c r="M24" s="3"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24" s="3"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="G25" s="3"/>
+      <c r="H25"/>
       <c r="I25"/>
       <c r="J25" s="3"/>
       <c r="K25"/>
-      <c r="L25" s="3"/>
-      <c r="M25"/>
+      <c r="L25"/>
+      <c r="M25" s="3"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25" s="3"/>
+      <c r="Q25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/오브젝트 데이터.xlsx
+++ b/오브젝트 데이터.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D999E33-CF49-4E0B-95B1-8149D3EF9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB5C79-6434-4D6D-8CB7-FF5B34C7BDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>*child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestGirl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBoy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,46 +486,46 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,7 +845,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -862,34 +870,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="19" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="14" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="15"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -904,28 +912,28 @@
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="18">
         <v>1</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="20" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="6">
         <v>1</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>43</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -948,28 +956,28 @@
       <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="10" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="19">
         <v>2</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="6">
         <v>2</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -980,22 +988,34 @@
       <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="26"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="N4" s="8">
         <v>3</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="K5" s="4"/>

--- a/오브젝트 데이터.xlsx
+++ b/오브젝트 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB5C79-6434-4D6D-8CB7-FF5B34C7BDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF16AD-4A82-453A-A0C5-D64FB8FF39BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,10 @@
   </si>
   <si>
     <t>TestBoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Larva</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +849,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -994,6 +998,12 @@
       <c r="E4" s="3">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="K4" s="4"/>
       <c r="L4" s="23"/>

--- a/오브젝트 데이터.xlsx
+++ b/오브젝트 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DF16AD-4A82-453A-A0C5-D64FB8FF39BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F41D5-3429-4CA6-ACE4-29184DFDA185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
+    <workbookView xWindow="3075" yWindow="0" windowWidth="21600" windowHeight="12645" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,15 @@
   <si>
     <t>BP_Larva</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Canfan</t>
+  </si>
+  <si>
+    <t>BP_Honeycomb</t>
+  </si>
+  <si>
+    <t>BP_MiroBox</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -376,32 +385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -421,33 +404,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,9 +462,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,16 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B551F4EB-68F4-4566-A4CA-5E03BDD45215}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -874,34 +828,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="25" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="27" t="s">
+      <c r="K1" s="23"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="23"/>
       <c r="O1" s="14"/>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -923,15 +877,15 @@
       <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="N2" s="6">
@@ -967,15 +921,15 @@
       <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>2</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="6">
@@ -985,7 +939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="17.25" thickBot="1">
+    <row r="4" spans="1:17">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1006,11 +960,11 @@
       </c>
       <c r="I4" s="16"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>3</v>
       </c>
       <c r="O4" s="16"/>
@@ -1030,6 +984,12 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="17.25" thickBot="1">
       <c r="A6" s="7" t="s">
@@ -1040,10 +1000,22 @@
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="M6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
+      <c r="M7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="8">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="K8" s="4"/>

--- a/오브젝트 데이터.xlsx
+++ b/오브젝트 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kclient\Desktop\Git\For_graduation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F41D5-3429-4CA6-ACE4-29184DFDA185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C58589A-B12B-4A26-896B-FDD5DB8B7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="0" windowWidth="21600" windowHeight="12645" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
+    <workbookView xWindow="195" yWindow="315" windowWidth="21600" windowHeight="12645" xr2:uid="{1E2AAA27-324D-44CE-A919-517FE6D337F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>크기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,22 @@
   </si>
   <si>
     <t>BP_MiroBox</t>
+  </si>
+  <si>
+    <t>BP_Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP_Ball_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*풍차용 공 (X=2812.000000,Y=-18310.000000,Z=1304.000000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*미로용 공(X=1661.000000,Y=-17668.000000,Z=-709.000000) (P=0,Y=90,R=0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -266,7 +282,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -404,13 +420,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,13 +504,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,7 +833,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -828,34 +858,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="23"/>
+      <c r="K1" s="25"/>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="25"/>
       <c r="O1" s="14"/>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="23"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
@@ -884,7 +914,7 @@
       <c r="K2" s="17">
         <v>1</v>
       </c>
-      <c r="L2" s="24"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="9" t="s">
         <v>20</v>
       </c>
@@ -928,7 +958,7 @@
       <c r="K3" s="18">
         <v>2</v>
       </c>
-      <c r="L3" s="24"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="9" t="s">
         <v>22</v>
       </c>
@@ -960,7 +990,7 @@
       </c>
       <c r="I4" s="16"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="22"/>
       <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
@@ -1020,10 +1050,28 @@
     <row r="8" spans="1:17">
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
+      <c r="M8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="3">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
+      <c r="M9" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="3">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="D10" s="13" t="s">
